--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1897.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1897.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\csk\year-volumes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ECC0FC-7B13-4682-91BB-03D94A96AE26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A259F5-7220-4F14-BF1E-C0F454EF27CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
+    <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -211,12 +216,6 @@
     <t>v</t>
   </si>
   <si>
-    <t>чc-м</t>
-  </si>
-  <si>
-    <t>чc-ж</t>
-  </si>
-  <si>
     <t>чс-о</t>
   </si>
   <si>
@@ -251,6 +250,12 @@
   </si>
   <si>
     <t>v-чж</t>
+  </si>
+  <si>
+    <t>чс-м</t>
+  </si>
+  <si>
+    <t>чс-ж</t>
   </si>
 </sst>
 </file>
@@ -260,7 +265,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,16 +667,16 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -684,24 +689,24 @@
   <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:B55"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.68359375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
-    <col min="26" max="26" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.83984375" customWidth="1"/>
+    <col min="13" max="13" width="11.578125" customWidth="1"/>
+    <col min="26" max="26" width="12.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>51</v>
@@ -728,40 +733,40 @@
         <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>58</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -835,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -852,7 +857,7 @@
         <v>20.7</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F52" si="0">C3-D3-E3</f>
+        <f t="shared" ref="F3:F51" si="0">C3-D3-E3</f>
         <v>0</v>
       </c>
       <c r="G3" s="12"/>
@@ -909,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -983,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1057,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1131,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1205,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1279,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1352,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1425,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1498,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1571,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1644,7 +1649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1717,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1790,7 +1795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1863,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1936,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2009,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2082,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2155,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2228,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2301,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2374,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2447,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2520,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2593,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2666,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2739,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2812,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2885,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2958,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3031,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3104,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3177,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3250,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3323,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3396,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3469,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3542,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3615,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3688,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3761,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3834,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3907,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3980,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -4053,7 +4058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -4126,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -4199,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -4272,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -4345,7 +4350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -4418,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -4470,14 +4475,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26">
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B54" s="4"/>
       <c r="H54" s="4">
@@ -4505,7 +4510,7 @@
         <v>2976453</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26">
       <c r="B55" s="4"/>
       <c r="H55" s="4">
         <f>H52-H54</f>

--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1897.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1897.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A259F5-7220-4F14-BF1E-C0F454EF27CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AC7E47-58F7-4E71-9133-92B1CF3835C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
@@ -234,9 +234,6 @@
     <t>verify:</t>
   </si>
   <si>
-    <t>чж МYY</t>
-  </si>
-  <si>
     <t>стр. IX, 15, 93</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>чс-ж</t>
+  </si>
+  <si>
+    <t>чж MYY</t>
   </si>
 </sst>
 </file>
@@ -671,12 +671,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +689,7 @@
   <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -706,7 +706,7 @@
         <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>51</v>
@@ -733,10 +733,10 @@
         <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>59</v>
@@ -757,13 +757,13 @@
         <v>63</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -4427,7 +4427,10 @@
       <c r="A52" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="3"/>
+      <c r="B52" s="3">
+        <f>SUM(B2:B51)</f>
+        <v>94494853</v>
+      </c>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -4458,21 +4461,21 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R52" s="6" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S52" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U52" s="6" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V52" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="R52" s="6">
+        <f t="shared" si="7"/>
+        <v>49.660069845285648</v>
+      </c>
+      <c r="S52" s="8">
+        <f t="shared" si="3"/>
+        <v>-49.660069845285648</v>
+      </c>
+      <c r="U52" s="6">
+        <f t="shared" si="4"/>
+        <v>31.498572731786776</v>
+      </c>
+      <c r="V52" s="8">
+        <f t="shared" si="5"/>
+        <v>-31.498572731786776</v>
       </c>
     </row>
     <row r="53" spans="1:26">
